--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Organization.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Organization.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Organization.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="440">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.3.0</t>
+    <t>2.2.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -254,6 +254,10 @@
   </si>
   <si>
     <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
   </si>
   <si>
     <t>(also see master files messages)</t>
@@ -1207,7 +1211,7 @@
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
   </si>
   <si>
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
@@ -1497,10 +1501,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1939,13 +1943,13 @@
         <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>27</v>
@@ -1956,10 +1960,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1970,7 +1974,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -1979,19 +1983,19 @@
         <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2041,13 +2045,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -2070,10 +2074,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2084,7 +2088,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>74</v>
@@ -2093,16 +2097,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2153,19 +2157,19 @@
         <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
@@ -2182,10 +2186,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2196,28 +2200,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2267,19 +2271,19 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
@@ -2296,10 +2300,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2310,7 +2314,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -2322,16 +2326,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2357,13 +2361,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -2381,19 +2385,19 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
@@ -2410,21 +2414,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>74</v>
@@ -2436,16 +2440,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2495,25 +2499,25 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>74</v>
@@ -2524,14 +2528,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2550,16 +2554,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2609,7 +2613,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2627,7 +2631,7 @@
         <v>74</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>74</v>
@@ -2638,14 +2642,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2664,16 +2668,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2723,7 +2727,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2735,13 +2739,13 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>74</v>
@@ -2752,14 +2756,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2772,25 +2776,25 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2839,7 +2843,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2851,13 +2855,13 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>74</v>
@@ -2868,10 +2872,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2891,20 +2895,20 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -2941,17 +2945,17 @@
         <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2960,36 +2964,36 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3005,20 +3009,20 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>74</v>
@@ -3067,7 +3071,7 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -3076,30 +3080,30 @@
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3110,7 +3114,7 @@
         <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -3122,13 +3126,13 @@
         <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3179,13 +3183,13 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>74</v>
@@ -3197,7 +3201,7 @@
         <v>74</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>74</v>
@@ -3208,14 +3212,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3234,16 +3238,16 @@
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3281,19 +3285,19 @@
         <v>74</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3305,13 +3309,13 @@
         <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>74</v>
@@ -3322,10 +3326,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3336,31 +3340,31 @@
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>74</v>
@@ -3385,13 +3389,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -3409,25 +3413,25 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>74</v>
@@ -3438,10 +3442,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3452,7 +3456,7 @@
         <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -3461,22 +3465,22 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3501,13 +3505,13 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
@@ -3525,25 +3529,25 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>74</v>
@@ -3554,10 +3558,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3565,10 +3569,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -3577,35 +3581,35 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>74</v>
@@ -3641,28 +3645,28 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>74</v>
@@ -3670,10 +3674,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3681,10 +3685,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -3693,19 +3697,19 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3719,7 +3723,7 @@
         <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>74</v>
@@ -3755,28 +3759,28 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>74</v>
@@ -3784,10 +3788,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3798,7 +3802,7 @@
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
@@ -3807,16 +3811,16 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3867,28 +3871,28 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>74</v>
@@ -3896,10 +3900,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3910,7 +3914,7 @@
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -3919,19 +3923,19 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3981,28 +3985,28 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>74</v>
@@ -4010,13 +4014,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>74</v>
@@ -4035,20 +4039,20 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>74</v>
@@ -4097,7 +4101,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -4106,30 +4110,30 @@
         <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4140,7 +4144,7 @@
         <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -4152,13 +4156,13 @@
         <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4209,13 +4213,13 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>74</v>
@@ -4227,7 +4231,7 @@
         <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>74</v>
@@ -4238,14 +4242,14 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4264,16 +4268,16 @@
         <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4311,19 +4315,19 @@
         <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4335,13 +4339,13 @@
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>74</v>
@@ -4352,10 +4356,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4366,31 +4370,31 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>74</v>
@@ -4415,13 +4419,13 @@
         <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>74</v>
@@ -4439,25 +4443,25 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>74</v>
@@ -4468,10 +4472,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4482,7 +4486,7 @@
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4491,22 +4495,22 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>74</v>
@@ -4531,13 +4535,13 @@
         <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>74</v>
@@ -4555,25 +4559,25 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4584,10 +4588,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4595,10 +4599,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4607,35 +4611,35 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>74</v>
@@ -4671,28 +4675,28 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>74</v>
@@ -4700,10 +4704,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4711,10 +4715,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -4723,19 +4727,19 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4749,7 +4753,7 @@
         <v>74</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>74</v>
@@ -4785,28 +4789,28 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>74</v>
@@ -4814,10 +4818,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4828,7 +4832,7 @@
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4837,16 +4841,16 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4897,28 +4901,28 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>74</v>
@@ -4926,10 +4930,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4940,7 +4944,7 @@
         <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -4949,19 +4953,19 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5011,28 +5015,28 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>74</v>
@@ -5040,10 +5044,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5054,114 +5058,114 @@
         <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q30" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH30" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="J30" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AI30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5181,22 +5185,22 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -5221,29 +5225,29 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -5255,30 +5259,30 @@
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>74</v>
@@ -5297,22 +5301,22 @@
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -5337,11 +5341,11 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>74</v>
@@ -5359,7 +5363,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5371,27 +5375,27 @@
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5402,7 +5406,7 @@
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -5414,13 +5418,13 @@
         <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5471,13 +5475,13 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>74</v>
@@ -5489,7 +5493,7 @@
         <v>74</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
@@ -5500,14 +5504,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5526,16 +5530,16 @@
         <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5573,19 +5577,19 @@
         <v>74</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5597,13 +5601,13 @@
         <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
@@ -5614,10 +5618,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5637,22 +5641,22 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5701,7 +5705,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5713,13 +5717,13 @@
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>74</v>
@@ -5730,10 +5734,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5744,7 +5748,7 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5756,13 +5760,13 @@
         <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5813,13 +5817,13 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>74</v>
@@ -5831,7 +5835,7 @@
         <v>74</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>74</v>
@@ -5842,14 +5846,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5868,16 +5872,16 @@
         <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5915,19 +5919,19 @@
         <v>74</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5939,13 +5943,13 @@
         <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>74</v>
@@ -5956,10 +5960,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5967,10 +5971,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -5979,29 +5983,29 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>74</v>
@@ -6043,25 +6047,25 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>74</v>
@@ -6072,10 +6076,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6086,7 +6090,7 @@
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -6095,19 +6099,19 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6157,25 +6161,25 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>74</v>
@@ -6186,10 +6190,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6197,10 +6201,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>74</v>
@@ -6209,20 +6213,20 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>74</v>
@@ -6271,25 +6275,25 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>74</v>
@@ -6300,10 +6304,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6314,7 +6318,7 @@
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -6323,20 +6327,20 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -6385,25 +6389,25 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>74</v>
@@ -6414,10 +6418,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6428,7 +6432,7 @@
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -6437,22 +6441,22 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>74</v>
@@ -6501,25 +6505,25 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>74</v>
@@ -6530,10 +6534,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6544,7 +6548,7 @@
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
@@ -6553,22 +6557,22 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -6617,25 +6621,25 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>74</v>
@@ -6646,13 +6650,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>74</v>
@@ -6671,22 +6675,22 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>74</v>
@@ -6711,11 +6715,11 @@
         <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>74</v>
@@ -6733,7 +6737,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6745,27 +6749,27 @@
         <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6776,7 +6780,7 @@
         <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>74</v>
@@ -6788,13 +6792,13 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6845,13 +6849,13 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>74</v>
@@ -6863,7 +6867,7 @@
         <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>74</v>
@@ -6874,14 +6878,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6900,16 +6904,16 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6947,19 +6951,19 @@
         <v>74</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6971,13 +6975,13 @@
         <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>74</v>
@@ -6988,10 +6992,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7011,22 +7015,22 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>74</v>
@@ -7075,7 +7079,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -7087,13 +7091,13 @@
         <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>74</v>
@@ -7104,10 +7108,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7118,7 +7122,7 @@
         <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>74</v>
@@ -7130,13 +7134,13 @@
         <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7187,13 +7191,13 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>74</v>
@@ -7205,7 +7209,7 @@
         <v>74</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>74</v>
@@ -7216,14 +7220,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7242,16 +7246,16 @@
         <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7289,19 +7293,19 @@
         <v>74</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -7313,13 +7317,13 @@
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>74</v>
@@ -7330,10 +7334,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7341,10 +7345,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
@@ -7353,29 +7357,29 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>74</v>
@@ -7417,25 +7421,25 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>74</v>
@@ -7446,10 +7450,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7460,7 +7464,7 @@
         <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>74</v>
@@ -7469,19 +7473,19 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7531,25 +7535,25 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>74</v>
@@ -7560,10 +7564,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7571,10 +7575,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
@@ -7583,20 +7587,20 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>74</v>
@@ -7645,25 +7649,25 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>74</v>
@@ -7674,10 +7678,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7688,7 +7692,7 @@
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
@@ -7697,20 +7701,20 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>74</v>
@@ -7759,25 +7763,25 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>74</v>
@@ -7788,10 +7792,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7802,7 +7806,7 @@
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
@@ -7811,22 +7815,22 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>74</v>
@@ -7875,25 +7879,25 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>74</v>
@@ -7904,10 +7908,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7918,7 +7922,7 @@
         <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>74</v>
@@ -7927,22 +7931,22 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>74</v>
@@ -7991,25 +7995,25 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>74</v>
@@ -8020,10 +8024,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8034,7 +8038,7 @@
         <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>74</v>
@@ -8043,22 +8047,22 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>74</v>
@@ -8107,28 +8111,28 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>74</v>
@@ -8136,10 +8140,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8162,19 +8166,19 @@
         <v>74</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>74</v>
@@ -8223,7 +8227,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -8235,13 +8239,13 @@
         <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>74</v>
@@ -8252,10 +8256,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8278,19 +8282,19 @@
         <v>74</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>74</v>
@@ -8339,7 +8343,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -8348,19 +8352,19 @@
         <v>76</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>74</v>
@@ -8368,10 +8372,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8394,19 +8398,19 @@
         <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>74</v>
@@ -8455,7 +8459,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8464,19 +8468,19 @@
         <v>76</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>74</v>
@@ -8484,10 +8488,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8498,7 +8502,7 @@
         <v>75</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>74</v>
@@ -8507,20 +8511,20 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -8569,28 +8573,28 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>74</v>
@@ -8598,10 +8602,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8624,19 +8628,19 @@
         <v>74</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -8685,7 +8689,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8697,13 +8701,13 @@
         <v>74</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>74</v>
@@ -8714,10 +8718,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8728,7 +8732,7 @@
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
@@ -8740,13 +8744,13 @@
         <v>74</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8797,13 +8801,13 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>74</v>
@@ -8815,7 +8819,7 @@
         <v>74</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>74</v>
@@ -8826,14 +8830,14 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8852,16 +8856,16 @@
         <v>74</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8911,7 +8915,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -8923,13 +8927,13 @@
         <v>74</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>74</v>
@@ -8940,14 +8944,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8960,25 +8964,25 @@
         <v>74</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>74</v>
@@ -9027,7 +9031,7 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
@@ -9039,13 +9043,13 @@
         <v>74</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>74</v>
@@ -9056,10 +9060,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9070,7 +9074,7 @@
         <v>75</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>74</v>
@@ -9082,17 +9086,17 @@
         <v>74</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>74</v>
@@ -9117,13 +9121,13 @@
         <v>74</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>74</v>
@@ -9141,25 +9145,25 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>74</v>
@@ -9170,10 +9174,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9184,7 +9188,7 @@
         <v>75</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>74</v>
@@ -9196,17 +9200,17 @@
         <v>74</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>74</v>
@@ -9255,25 +9259,25 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>74</v>
@@ -9284,10 +9288,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9310,17 +9314,17 @@
         <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>74</v>
@@ -9369,7 +9373,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -9381,13 +9385,13 @@
         <v>74</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>74</v>
@@ -9398,10 +9402,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9412,7 +9416,7 @@
         <v>75</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>74</v>
@@ -9424,19 +9428,19 @@
         <v>74</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>74</v>
@@ -9485,28 +9489,28 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>74</v>
@@ -9514,10 +9518,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9540,17 +9544,17 @@
         <v>74</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>74</v>
@@ -9599,7 +9603,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
@@ -9611,13 +9615,13 @@
         <v>74</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>74</v>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Organization.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="444">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-test</t>
+    <t>2.2.2-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -1205,19 +1205,19 @@
 </t>
   </si>
   <si>
-    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats)</t>
-  </si>
-  <si>
-    <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
-  </si>
-  <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>An address for the organization</t>
+  </si>
+  <si>
+    <t>An address for the organization.</t>
+  </si>
+  <si>
+    <t>Organization may have multiple addresses with different uses or applicable periods. The use code 'home' is not to be used.</t>
   </si>
   <si>
     <t>May need to keep track of the organization's addresses for contacting, billing or reporting requirements.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
+    <t xml:space="preserve">org-2
 </t>
   </si>
   <si>
@@ -1225,13 +1225,13 @@
 org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
-    <t>XAD</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>Address</t>
+    <t>ORC-23?</t>
+  </si>
+  <si>
+    <t>.address</t>
+  </si>
+  <si>
+    <t>./PrimaryAddress and ./OtherAddresses</t>
   </si>
   <si>
     <t>Organization.partOf</t>
@@ -1362,7 +1362,19 @@
     <t>Organization.contact.address</t>
   </si>
   <si>
+    <t>Visiting or postal addresses for the contact</t>
+  </si>
+  <si>
+    <t>Visiting or postal addresses for the contact.</t>
+  </si>
+  <si>
     <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
+  </si>
+  <si>
+    <t>PID-11</t>
+  </si>
+  <si>
+    <t>./addr</t>
   </si>
   <si>
     <t>Organization.endpoint</t>
@@ -9431,16 +9443,14 @@
         <v>383</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>74</v>
@@ -9498,19 +9508,19 @@
         <v>84</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>388</v>
+        <v>74</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>392</v>
+        <v>74</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>74</v>
@@ -9518,10 +9528,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9544,17 +9554,17 @@
         <v>74</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>74</v>
@@ -9603,7 +9613,7 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Organization.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Organization.xlsx
@@ -352,7 +352,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -607,7 +607,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -716,7 +716,7 @@
     <t>Organization.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -838,7 +838,7 @@
     <t>Used to categorize the organization.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/organization-type</t>
+    <t>http://hl7.org/fhir/ValueSet/organization-type|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding.system}
@@ -1313,7 +1313,7 @@
     <t>The purpose for which you would contact a contact party.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type|4.0.1</t>
   </si>
   <si>
     <t>./type</t>
@@ -1380,7 +1380,7 @@
     <t>Organization.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>
@@ -1695,17 +1695,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.64453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.44140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.35546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.9921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.09765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.87890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.95703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.83203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1714,26 +1714,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.6484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="41.5390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="45.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="218.1953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="39.109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="187.0625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/no-basis/CurrentBuild/StructureDefinition-no-basis-Organization.xlsx
+++ b/no-basis/CurrentBuild/StructureDefinition-no-basis-Organization.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-basis-Organization</t>
+    <t>http://hl7.no/fhir/ig/StructureDefinition/no-basis-Organization</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.2-test</t>
+    <t>2.2.3-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -1201,7 +1201,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {http://hl7.no/fhir/StructureDefinition/no-basis-Address}
+    <t xml:space="preserve">Address {http://hl7.no/fhir/ig/StructureDefinition/no-basis-Address}
 </t>
   </si>
   <si>
@@ -1237,7 +1237,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|http://hl7.no/fhir/StructureDefinition/no-basis-Organization)
+    <t xml:space="preserve">Reference(Organization|http://hl7.no/fhir/ig/StructureDefinition/no-basis-Organization)
 </t>
   </si>
   <si>
@@ -1705,7 +1705,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.83203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
